--- a/output/flourish_prefeitos_ideologia_perc.xlsx
+++ b/output/flourish_prefeitos_ideologia_perc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>Ano</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,19 +423,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>40.54</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>51.35</v>
+        <v>39.58</v>
       </c>
       <c r="F2">
-        <v>8.109999999999999</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,19 +443,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>26.45</v>
+        <v>27.44</v>
       </c>
       <c r="E3">
-        <v>56.16</v>
+        <v>55.6</v>
       </c>
       <c r="F3">
-        <v>17.39</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,19 +463,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>10.38</v>
+        <v>16.41</v>
       </c>
       <c r="E4">
-        <v>64.56999999999999</v>
+        <v>58.6</v>
       </c>
       <c r="F4">
-        <v>25.05</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>39.58</v>
       </c>
       <c r="E5">
-        <v>39.58</v>
+        <v>52.08</v>
       </c>
       <c r="F5">
-        <v>10.42</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,19 +503,19 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>27.44</v>
+        <v>36.82</v>
       </c>
       <c r="E6">
-        <v>55.6</v>
+        <v>49.1</v>
       </c>
       <c r="F6">
-        <v>16.97</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,19 +523,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>16.41</v>
+        <v>23.26</v>
       </c>
       <c r="E7">
-        <v>58.6</v>
+        <v>57.82</v>
       </c>
       <c r="F7">
-        <v>24.99</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,19 +543,19 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>39.58</v>
+        <v>52.08</v>
       </c>
       <c r="E8">
-        <v>52.08</v>
+        <v>33.33</v>
       </c>
       <c r="F8">
-        <v>8.33</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,19 +563,19 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>36.82</v>
+        <v>35.38</v>
       </c>
       <c r="E9">
-        <v>49.1</v>
+        <v>57.4</v>
       </c>
       <c r="F9">
-        <v>14.08</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,19 +583,19 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>23.26</v>
+        <v>27.3</v>
       </c>
       <c r="E10">
-        <v>57.84</v>
+        <v>58.32</v>
       </c>
       <c r="F10">
-        <v>18.9</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>52.08</v>
+        <v>20.83</v>
       </c>
       <c r="E11">
-        <v>33.33</v>
+        <v>64.58</v>
       </c>
       <c r="F11">
         <v>14.58</v>
@@ -623,19 +623,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>35.38</v>
+        <v>20.22</v>
       </c>
       <c r="E12">
-        <v>57.4</v>
+        <v>64.98</v>
       </c>
       <c r="F12">
-        <v>7.22</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -643,19 +643,19 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13">
-        <v>27.39</v>
+        <v>21.59</v>
       </c>
       <c r="E13">
-        <v>58.29</v>
+        <v>63.41</v>
       </c>
       <c r="F13">
-        <v>14.32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,19 +663,19 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>20.83</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>64.58</v>
+        <v>55.56</v>
       </c>
       <c r="F14">
-        <v>14.58</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -683,19 +683,19 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>20.29</v>
+        <v>11.92</v>
       </c>
       <c r="E15">
-        <v>65.22</v>
+        <v>61.15</v>
       </c>
       <c r="F15">
-        <v>14.49</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -703,79 +703,19 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16">
-        <v>21.54</v>
+        <v>15.74</v>
       </c>
       <c r="E16">
-        <v>63.41</v>
+        <v>61.41</v>
       </c>
       <c r="F16">
-        <v>15.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>2020</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>5.56</v>
-      </c>
-      <c r="E17">
-        <v>66.67</v>
-      </c>
-      <c r="F17">
-        <v>27.78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>2020</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>11.72</v>
-      </c>
-      <c r="E18">
-        <v>61.92</v>
-      </c>
-      <c r="F18">
-        <v>26.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>2020</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>15.79</v>
-      </c>
-      <c r="E19">
-        <v>61.44</v>
-      </c>
-      <c r="F19">
-        <v>22.78</v>
+        <v>22.85</v>
       </c>
     </row>
   </sheetData>
